--- a/500all/speech_level/speeches_CHRG-114hhrg98913.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98913.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,27 +52,18 @@
     <t>400433</t>
   </si>
   <si>
-    <t>Joe Wilson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Wilson. Ladies and gentlemen, I call this hearing of the Emerging Threats and Capabilities Subcommittee of the House Armed Services Committee to order. I am pleased to welcome everyone here today for today's hearing on outside views of biodefense for the Department of Defense [DOD]. This hearing will provide an overview of the findings and recommendations from the recent bipartisan report of the Blue Ribbon Study Panel on Biodefense.    It is critical that the United States maintain a dynamic national defense against the growing threat posed by biological weapons and naturally occurring diseases. The Department of Defense plays a large role in the U.S. biodefense enterprise, contributing biodetection tools, medical countermeasures and protection, and decontamination technologies. The recent response to the Ebola outbreak illustrates the importance of the Department of Defense's biodefense contributions to broader government and global efforts.    This hearing is especially timely in preparing for our subcommittee hearing next week with the Department of Defense on countering weapons of mass destruction policy and programs for the fiscal year 2017. The findings and recommendations discussed today will be important aspects of our review of the fiscal year 2017 Department of Defense biodefense enterprise.    Our witnesses before us today are the Honorable Ken Wainstein. He is the Blue Ribbon Study Panel on Biodefense panel member. Additionally, Dr. Gerald Parker, the Blue Ribbon Study Panel on Biodefense Panel ex officio member.    I would like now to turn, but he is not here, to Mr. Jim Langevin, but Lindsay has assured us that he will be here soon, and we will proceed. And so we would like to begin right this moment. Thank you.    [The prepared statement of Mr. Wilson can be found in the Appendix on page 19.]</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Wainstein</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Wainstein. Thank you very much, Chairman Wilson. It is a real pleasure to be here today on behalf of the Blue Ribbon Study Panel on Biodefense and to represent our co-chairs, Governor Tom Ridge and Senator Joe Lieberman, as well as the rest of our colleagues who worked with us on the Study Panel.    As you mentioned, last October we released our bipartisan report in which we provided an assessment of our national biodefense, and offered 33 recommendations that we believe will improve our ability to defend against biological threats of all types--against those that are intentionally and maliciously introduced, against those that are naturally occurring, and also against those that result from accidental release.    Before highlighting a couple of these recommendations, I would like to briefly discuss the biological threat that we currently face. I will start with the anthrax attacks of 2001.    We don't need to remind you up here on Capitol Hill about those attacks and about how they were a tragic wakeup call to the Nation about the possible consequences of deadly biological agents falling into the wrong hands.    As tragic as those attacks were, however, there is good reason to believe that future attacks could be much more devastating. For one, we know that are there are stockpiles of biological weapons throughout the world that may now be or may become accessible to our enemies. When the U.S. discontinued its offensive biological weapons program in 1969, other nations, including the former Soviet Union, continued to produce stockpiles of biological agents, stockpiles that represent an appealing opportunity for rogue nations and those terrorist groups, like ISIS [Islamic State in Iraq and Syria], that are intent on inflicting the maximum possible damage against our Nation and against our people.    As we on the panel heard from a number of experts who appeared before us, including former Senator Jim Talent, former Representative Mike Rogers, and others, our enemies are currently taking specific steps to develop, or to procure, biological weapons for use against us. Intelligence indicates that they are actively trying to recruit scientific experts; they are seeking control of laboratory, manufacturing, and other infrastructure for biological weapon production and development; they are talking about how best to deploy biological weapons; and they are making concrete plans for the use of these weapons.    In light of this information, we believe that it is not a matter of if, but rather when and how soon a biological attack will be launched against our Nation, our people, or our allies; and the fundamental question is whether we are equipped and prepared to handle this imminent threat. And sadly, our panel found that the answer to that question is no. Despite a number of important strides taken in the past 14 years since the anthrax attacks, we have failed to develop the coordinated and comprehensive biodefense that is necessary to meet and defeat this threat.    To address this failing, our panel made 33 recommendations that we believe will improve our Nation's overall ability to prevent, deter, detect, respond to, recover from, and mitigate biological threats. And if I may, I would like to highlight just a couple of those recommendations.    First, recognizing that leadership is the key to success for any such effort, our initial recommendation is that the White House take point in coordinating the national biodefense, and specifically that the Vice President take charge of that effort; that he establish and operate through a Biodefense Coordination Council comprised of representatives of the responsible agencies, and that as a first step he and the Coordination Council jointly develop a national biodefense strategy to replace the current piecemeal strategies, directives, and policies with a comprehensive strategy that contains both the overarching vision and the specific policy and operational objectives that are necessary to drive the construction of a viable national biodefense.    In conjunction with this and the other recommendations that are directed primarily to the executive branch and its State, local, tribal, and corporate partners, we also recommend that Congress take steps to contribute to this effort. Specifically, we recommend that Congress follow the lead of this committee and enhance the level and the intensity of its oversight in the biodefense area.    Progress in this biodefense area will require strong encouragement and strong oversight from Congress. And while we applaud this committee for taking the step of having this hearing, we recognize that it is only a first step; a first step of what will be a long-term national effort to build an effective and enduring defense system to protect against the biological threat.    It is important to remember that after the terrorist attacks of9/11, 2001, we succeeded in doing exactly that, and we built a defense system that has largely protected us against the more general traditional terrorist threat. With commitment and with support from both the executive and legislative branches, I am confident that we can do that again, that we can build a defense system that will protect us against the specific threat of biological attack and infection.    I want to thank you, sir, for holding this very important hearing and for having me here today, and I look forward to any questions that you may have.    [The joint prepared statement of Mr. Wainstein and Dr. Parker can be found in the Appendix on page 20.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Wilson. And, Mr. Wainstein, thank you very much. And it is ironic that you would reference anthrax. I was elected in a special election right at that time, December 2001. What an introduction to Washington.    Dr. Parker.</t>
   </si>
   <si>
-    <t>Parker</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Parker. Good afternoon, Chairman Wilson, Ranking Member Langevin, and members of the subcommittee. Thank you for the invitation to appear before you today. It is an honor to be here with Honorable Ken Wainstein representing the Biodefense Blue Ribbon Panel.    Mr. Wainstein covered the threat and the need for a biodefense strategy. For my part, I would like to bring a few programmatic issues to your attention.    As a retired member of the Armed Forces, I spent many years working to protect the Nation, our soldiers, and their families. I am proud to tell you that the Department of Defense institutions, such as USAMRID [U.S. Army Medical Research Institute of Infectious Diseases], which I once commanded, contribute significantly to U.S. biodefense alone and in concert with our civilian and international partners. These organizations have dedicated scientists, they conduct cutting-edge research, they discover new countermeasures, and they provide science-based knowledge to operations. In summary, they are the go-to scientists to counter biothreats for the DOD.    While this is commendable, it does not mean that these human institutions are infallible, as has been recently seen in both military and civilian labs in the DOD and HHS [U.S. Department of Health and Human Services]. They have made mistakes, and if left uncorrected will contribute to the Nation's biological risk.    The recent laboratory safety and security breaches at Dugway illustrate this point. As you know, despite following protocols, viable anthrax spores were inadvertently sent to other labs over an extended period of time. As it turns out, there is an incomplete scientific understanding of the inactivation process, there are no standardized protocols for inactivation, and the checks that Dugway had in place were insufficient.    It is important to note that DOD's risk assessment concluded that this incident posed little risk to public health; but we must assume that without continued focus on smart improvements in biosecurity and biosafety, this will happen again somewhere in the Nation's laboratory network with a worse outcome. We cannot afford institutional failures.    One of the basic tenets of DOD is that we must protect the warfighter. No other agency can do that for DOD. This is a top priority. In the case of biodefense, it means addressing a number of vulnerabilities.    Military personnel are the most likely to be exposed to infectious disease threats, some which the world has never seen before, and some which do not have any treatments. Ebola is a good example of this, but there are worse examples. This means that we have to protect our soldiers. We need trained and equipped medical teams with logistical support ready to respond to outbreaks or bioterror attack. We have to have rapid diagnostics, effective biodetection, as well as global biosituational awareness.    These and other issues drive a number of DOD programs, to include the Chemical and Biological Defense Program, the Military Infectious Disease Program, the Cooperative Bio Engagement Program, GEIS [Global Emerging Infections Surveillance and Response System], DARPA [Defense Advanced Research Projects Agency], and others, who have broadly followed either AT&amp;L [Acquisition, Technology, and Logistics], Health Affairs, and OSD [Office of the Secretary of Defense].    I want to emphasize there are many hardworking, dedicated professionals working in these programs, but we need to better prepare for the eventual use of biological weapons. We believe that DOD needs to clarify parameters for military support to civilian authorities in response to a domestic biological attack, update and implement military biodefense doctrine, hopefully tiered to a new national strategy as recommended by the panel.    Let me provide one programmatic example of the need to include military-civilian collaboration. There is a longstanding need for effective biodetectors on and off the battlefield. Mr. Langevin and others that serve on the House Committee on Homeland Security are well aware of the DHS [Department of Homeland Security] experience with BioWatch, a biodetection system that a number of experts believe is insufficient to the needs of the Nation. DOD also has a separate biodetection program and it's had one for years. And although DOD and DHS are communicating better than ever on these programs, this is just an example where we need an integrated program, in this case biodetection, driven by strong centralized leadership, guided by a national biodefense strategy, that we can field effective and affordable solutions in a timely manner for our soldiers and citizens.    DOD and the interagency face a number of other challenges. These include the need to establish effective BW [biological weapons] intelligence, authoritative microbial forensics and attribution, and decontamination and remediation.    I can go into detail about these later, but before closing I would like to add that the lines between BW and infectious diseases have blurred, and DOD's positive contributions to global health security through our OCONUS [outside the contiguous United States] laboratories, our global biosurveillance programs, and cooperative bioengagement cannot be overstated.    In closing, I would like to thank the members of the subcommittee again for this opportunity to appear before you today. Thank you.    [The joint prepared statement of Dr. Parker and Mr. Wainstein can be found in the Appendix on page 20.]</t>
   </si>
   <si>
@@ -100,9 +91,6 @@
     <t>412615</t>
   </si>
   <si>
-    <t>Pete Aguilar</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Aguilar. Thank you, gentlemen. I appreciate the report and the work that you are doing.    Dr. Parker, you touched on this a little bit, and the chairman mentioned it, the coordination between DHS and DOD. Can you talk a little bit about that and the role within the biomedical advanced research groups and DOD as well, what more we can do to foster that? The chairman mentioned obviously the potential to have events abroad and here nationally as well. I represent the city of San Bernardino where the incident was last month, and obviously it could have gone a different way.    And so making sure that the coordination between local law enforcement agencies also exists within a DHS interface or DOD interface is something that I think our communities also want to see us take serious.</t>
   </si>
   <si>
@@ -136,9 +124,6 @@
     <t>412648</t>
   </si>
   <si>
-    <t>Elise M. Stefanik</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Stefanik. Thank you, Mr. Chairman. And thank you, Dr. Parker, for your testimony. Mr. Wainstein, good to see you again. You and I served in the White House together.</t>
   </si>
   <si>
@@ -178,9 +163,6 @@
     <t>412642</t>
   </si>
   <si>
-    <t>Brad Ashford</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Ashford. Thank you.    Doctor, thank you, and thanks for the report.    We at the University of Nebraska have engaged in--and I know you are aware of this--a number of initiatives, starting with Dr. Phil Smith a few years--well, 10 or 12 years ago--in some of his initiatives that have evolved into the Ebola facility at UNMC [University of Nebraska Medical Center]. And there is great hope that they can expand that facility further to provide training and other, obviously not only for Ebola, but for the whole grouping of threats here.    And again, I thought Congresswoman Stefanik's point is well taken, is that facility and that initiative at UNMC is a public-private partnership as well. And so the kind of training that would go on there, and I know your report reflects this, is not only would be training healthcare professionals, training others that are going to be engaging in these threats.    How would you see that training regimen working? And I know you have mentioned it in the report, but if you could just elaborate on it.</t>
   </si>
   <si>
@@ -208,22 +190,19 @@
     <t xml:space="preserve">    Mr. Wilson. Thank you very much, Congressman. And, hey, from a South Carolina perspective, we really appreciate Nebraska. You are a hearty people to live where you live.    And, hey, talk about hearty people, it is really tough, San Diego. Congressman Duncan Hunter from California.</t>
   </si>
   <si>
+    <t xml:space="preserve">    Mr. Duncan. Also in the South.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Wilson. Yes, yes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Duncan. Southern California.    I just want to piggyback on Ms. Stefanik's question. You didn't really answer. What are the actual incentives? Besides saying transparency and let's get together and sing Kumbaya, what are the actual incentives to keep private companies with stockpiles or to keep them ahead of the whole curve in the first place? What is DOD doing, with the FDA, for instance, to say, hey, we are going to add you to the, what is it, the priority voucher program, like we added Ebola to last year, what are we going to do to add anything else that our service members face overseas with the FDA and DOD so that industry is ahead of it and not playing catch-up when bad things happen?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Dr. Parker. Well, I think actually I go back to perhaps what the panel actually concluded, that maybe the most important incentive goes back to the original Project BioShield in 2004, that having that appropriation up front so that industry knew that there was going to be a market for the countermeasures that were going to be developed, that is probably the single most valuable incentive.</t>
+  </si>
+  <si>
     <t>412283</t>
-  </si>
-  <si>
-    <t>Duncan Hunter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Duncan. Also in the South.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Wilson. Yes, yes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Duncan. Southern California.    I just want to piggyback on Ms. Stefanik's question. You didn't really answer. What are the actual incentives? Besides saying transparency and let's get together and sing Kumbaya, what are the actual incentives to keep private companies with stockpiles or to keep them ahead of the whole curve in the first place? What is DOD doing, with the FDA, for instance, to say, hey, we are going to add you to the, what is it, the priority voucher program, like we added Ebola to last year, what are we going to do to add anything else that our service members face overseas with the FDA and DOD so that industry is ahead of it and not playing catch-up when bad things happen?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Dr. Parker. Well, I think actually I go back to perhaps what the panel actually concluded, that maybe the most important incentive goes back to the original Project BioShield in 2004, that having that appropriation up front so that industry knew that there was going to be a market for the countermeasures that were going to be developed, that is probably the single most valuable incentive.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Hunter. And then DOD says, hey, we are going to focus in these three areas, for instance, and that is where the appropriation is going to go towards, we are going to go towards that?</t>
@@ -673,11 +652,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -697,13 +674,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -725,11 +700,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -749,13 +722,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -777,11 +748,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -801,13 +770,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -829,11 +796,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -853,13 +818,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s">
-        <v>18</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -881,11 +844,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -905,13 +866,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" t="s">
-        <v>18</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -933,11 +892,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -957,13 +914,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -983,13 +938,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" t="s">
-        <v>18</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1009,13 +962,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
         <v>27</v>
-      </c>
-      <c r="G15" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1035,13 +986,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" t="s">
-        <v>18</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1061,13 +1010,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1087,13 +1034,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" t="s">
-        <v>18</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1113,13 +1058,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1139,13 +1082,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1165,13 +1106,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G21" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1193,11 +1132,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1217,13 +1154,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>39</v>
-      </c>
-      <c r="G23" t="s">
-        <v>40</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1243,13 +1178,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1269,13 +1202,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G25" t="s">
-        <v>40</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1295,13 +1226,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" t="s">
-        <v>18</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1321,13 +1250,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>39</v>
-      </c>
-      <c r="G27" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
         <v>40</v>
-      </c>
-      <c r="H27" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1347,13 +1274,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" t="s">
-        <v>18</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1373,13 +1298,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
-      </c>
-      <c r="G29" t="s">
-        <v>40</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1399,13 +1322,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1425,13 +1346,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>39</v>
-      </c>
-      <c r="G31" t="s">
-        <v>40</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1451,13 +1370,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" t="s">
-        <v>18</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1477,13 +1394,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>39</v>
-      </c>
-      <c r="G33" t="s">
-        <v>40</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1505,11 +1420,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1529,13 +1442,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>53</v>
-      </c>
-      <c r="G35" t="s">
-        <v>54</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1555,13 +1466,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" t="s">
-        <v>18</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1581,13 +1490,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>53</v>
-      </c>
-      <c r="G37" t="s">
-        <v>54</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1607,13 +1514,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" t="s">
-        <v>18</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1633,13 +1538,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
+        <v>48</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
         <v>53</v>
-      </c>
-      <c r="G39" t="s">
-        <v>54</v>
-      </c>
-      <c r="H39" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1659,13 +1562,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" t="s">
-        <v>18</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1685,13 +1586,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>53</v>
-      </c>
-      <c r="G41" t="s">
-        <v>54</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1711,13 +1610,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" t="s">
-        <v>18</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1739,11 +1636,9 @@
       <c r="F43" t="s">
         <v>11</v>
       </c>
-      <c r="G43" t="s">
-        <v>12</v>
-      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1763,13 +1658,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>64</v>
-      </c>
-      <c r="G44" t="s">
-        <v>65</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1791,11 +1684,9 @@
       <c r="F45" t="s">
         <v>11</v>
       </c>
-      <c r="G45" t="s">
-        <v>12</v>
-      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1815,13 +1706,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>64</v>
-      </c>
-      <c r="G46" t="s">
-        <v>65</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1841,13 +1730,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" t="s">
-        <v>18</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1867,13 +1754,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>64</v>
-      </c>
-      <c r="G48" t="s">
-        <v>65</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1893,13 +1778,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" t="s">
-        <v>18</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1919,13 +1802,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>64</v>
-      </c>
-      <c r="G50" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
         <v>65</v>
-      </c>
-      <c r="H50" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1945,13 +1826,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" t="s">
-        <v>18</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1971,13 +1850,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>64</v>
-      </c>
-      <c r="G52" t="s">
-        <v>65</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1997,13 +1874,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" t="s">
-        <v>18</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2023,13 +1898,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>64</v>
-      </c>
-      <c r="G54" t="s">
-        <v>65</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2049,13 +1922,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" t="s">
-        <v>18</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2075,13 +1946,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>64</v>
-      </c>
-      <c r="G56" t="s">
-        <v>65</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2101,13 +1970,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" t="s">
-        <v>18</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2127,13 +1994,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>64</v>
-      </c>
-      <c r="G58" t="s">
-        <v>65</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2155,11 +2020,9 @@
       <c r="F59" t="s">
         <v>11</v>
       </c>
-      <c r="G59" t="s">
-        <v>12</v>
-      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2179,13 +2042,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>27</v>
-      </c>
-      <c r="G60" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2205,13 +2066,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" t="s">
-        <v>18</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2231,13 +2090,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2257,13 +2114,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>27</v>
-      </c>
-      <c r="G63" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2285,11 +2140,9 @@
       <c r="F64" t="s">
         <v>11</v>
       </c>
-      <c r="G64" t="s">
-        <v>12</v>
-      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg98913.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98913.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="93">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,18 +55,30 @@
     <t>400433</t>
   </si>
   <si>
+    <t>Wilson</t>
+  </si>
+  <si>
+    <t>Joe</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Wilson. Ladies and gentlemen, I call this hearing of the Emerging Threats and Capabilities Subcommittee of the House Armed Services Committee to order. I am pleased to welcome everyone here today for today's hearing on outside views of biodefense for the Department of Defense [DOD]. This hearing will provide an overview of the findings and recommendations from the recent bipartisan report of the Blue Ribbon Study Panel on Biodefense.    It is critical that the United States maintain a dynamic national defense against the growing threat posed by biological weapons and naturally occurring diseases. The Department of Defense plays a large role in the U.S. biodefense enterprise, contributing biodetection tools, medical countermeasures and protection, and decontamination technologies. The recent response to the Ebola outbreak illustrates the importance of the Department of Defense's biodefense contributions to broader government and global efforts.    This hearing is especially timely in preparing for our subcommittee hearing next week with the Department of Defense on countering weapons of mass destruction policy and programs for the fiscal year 2017. The findings and recommendations discussed today will be important aspects of our review of the fiscal year 2017 Department of Defense biodefense enterprise.    Our witnesses before us today are the Honorable Ken Wainstein. He is the Blue Ribbon Study Panel on Biodefense panel member. Additionally, Dr. Gerald Parker, the Blue Ribbon Study Panel on Biodefense Panel ex officio member.    I would like now to turn, but he is not here, to Mr. Jim Langevin, but Lindsay has assured us that he will be here soon, and we will proceed. And so we would like to begin right this moment. Thank you.    [The prepared statement of Mr. Wilson can be found in the Appendix on page 19.]</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
+    <t>Wainstein</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Wainstein. Thank you very much, Chairman Wilson. It is a real pleasure to be here today on behalf of the Blue Ribbon Study Panel on Biodefense and to represent our co-chairs, Governor Tom Ridge and Senator Joe Lieberman, as well as the rest of our colleagues who worked with us on the Study Panel.    As you mentioned, last October we released our bipartisan report in which we provided an assessment of our national biodefense, and offered 33 recommendations that we believe will improve our ability to defend against biological threats of all types--against those that are intentionally and maliciously introduced, against those that are naturally occurring, and also against those that result from accidental release.    Before highlighting a couple of these recommendations, I would like to briefly discuss the biological threat that we currently face. I will start with the anthrax attacks of 2001.    We don't need to remind you up here on Capitol Hill about those attacks and about how they were a tragic wakeup call to the Nation about the possible consequences of deadly biological agents falling into the wrong hands.    As tragic as those attacks were, however, there is good reason to believe that future attacks could be much more devastating. For one, we know that are there are stockpiles of biological weapons throughout the world that may now be or may become accessible to our enemies. When the U.S. discontinued its offensive biological weapons program in 1969, other nations, including the former Soviet Union, continued to produce stockpiles of biological agents, stockpiles that represent an appealing opportunity for rogue nations and those terrorist groups, like ISIS [Islamic State in Iraq and Syria], that are intent on inflicting the maximum possible damage against our Nation and against our people.    As we on the panel heard from a number of experts who appeared before us, including former Senator Jim Talent, former Representative Mike Rogers, and others, our enemies are currently taking specific steps to develop, or to procure, biological weapons for use against us. Intelligence indicates that they are actively trying to recruit scientific experts; they are seeking control of laboratory, manufacturing, and other infrastructure for biological weapon production and development; they are talking about how best to deploy biological weapons; and they are making concrete plans for the use of these weapons.    In light of this information, we believe that it is not a matter of if, but rather when and how soon a biological attack will be launched against our Nation, our people, or our allies; and the fundamental question is whether we are equipped and prepared to handle this imminent threat. And sadly, our panel found that the answer to that question is no. Despite a number of important strides taken in the past 14 years since the anthrax attacks, we have failed to develop the coordinated and comprehensive biodefense that is necessary to meet and defeat this threat.    To address this failing, our panel made 33 recommendations that we believe will improve our Nation's overall ability to prevent, deter, detect, respond to, recover from, and mitigate biological threats. And if I may, I would like to highlight just a couple of those recommendations.    First, recognizing that leadership is the key to success for any such effort, our initial recommendation is that the White House take point in coordinating the national biodefense, and specifically that the Vice President take charge of that effort; that he establish and operate through a Biodefense Coordination Council comprised of representatives of the responsible agencies, and that as a first step he and the Coordination Council jointly develop a national biodefense strategy to replace the current piecemeal strategies, directives, and policies with a comprehensive strategy that contains both the overarching vision and the specific policy and operational objectives that are necessary to drive the construction of a viable national biodefense.    In conjunction with this and the other recommendations that are directed primarily to the executive branch and its State, local, tribal, and corporate partners, we also recommend that Congress take steps to contribute to this effort. Specifically, we recommend that Congress follow the lead of this committee and enhance the level and the intensity of its oversight in the biodefense area.    Progress in this biodefense area will require strong encouragement and strong oversight from Congress. And while we applaud this committee for taking the step of having this hearing, we recognize that it is only a first step; a first step of what will be a long-term national effort to build an effective and enduring defense system to protect against the biological threat.    It is important to remember that after the terrorist attacks of9/11, 2001, we succeeded in doing exactly that, and we built a defense system that has largely protected us against the more general traditional terrorist threat. With commitment and with support from both the executive and legislative branches, I am confident that we can do that again, that we can build a defense system that will protect us against the specific threat of biological attack and infection.    I want to thank you, sir, for holding this very important hearing and for having me here today, and I look forward to any questions that you may have.    [The joint prepared statement of Mr. Wainstein and Dr. Parker can be found in the Appendix on page 20.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Wilson. And, Mr. Wainstein, thank you very much. And it is ironic that you would reference anthrax. I was elected in a special election right at that time, December 2001. What an introduction to Washington.    Dr. Parker.</t>
   </si>
   <si>
+    <t>Parker</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Parker. Good afternoon, Chairman Wilson, Ranking Member Langevin, and members of the subcommittee. Thank you for the invitation to appear before you today. It is an honor to be here with Honorable Ken Wainstein representing the Biodefense Blue Ribbon Panel.    Mr. Wainstein covered the threat and the need for a biodefense strategy. For my part, I would like to bring a few programmatic issues to your attention.    As a retired member of the Armed Forces, I spent many years working to protect the Nation, our soldiers, and their families. I am proud to tell you that the Department of Defense institutions, such as USAMRID [U.S. Army Medical Research Institute of Infectious Diseases], which I once commanded, contribute significantly to U.S. biodefense alone and in concert with our civilian and international partners. These organizations have dedicated scientists, they conduct cutting-edge research, they discover new countermeasures, and they provide science-based knowledge to operations. In summary, they are the go-to scientists to counter biothreats for the DOD.    While this is commendable, it does not mean that these human institutions are infallible, as has been recently seen in both military and civilian labs in the DOD and HHS [U.S. Department of Health and Human Services]. They have made mistakes, and if left uncorrected will contribute to the Nation's biological risk.    The recent laboratory safety and security breaches at Dugway illustrate this point. As you know, despite following protocols, viable anthrax spores were inadvertently sent to other labs over an extended period of time. As it turns out, there is an incomplete scientific understanding of the inactivation process, there are no standardized protocols for inactivation, and the checks that Dugway had in place were insufficient.    It is important to note that DOD's risk assessment concluded that this incident posed little risk to public health; but we must assume that without continued focus on smart improvements in biosecurity and biosafety, this will happen again somewhere in the Nation's laboratory network with a worse outcome. We cannot afford institutional failures.    One of the basic tenets of DOD is that we must protect the warfighter. No other agency can do that for DOD. This is a top priority. In the case of biodefense, it means addressing a number of vulnerabilities.    Military personnel are the most likely to be exposed to infectious disease threats, some which the world has never seen before, and some which do not have any treatments. Ebola is a good example of this, but there are worse examples. This means that we have to protect our soldiers. We need trained and equipped medical teams with logistical support ready to respond to outbreaks or bioterror attack. We have to have rapid diagnostics, effective biodetection, as well as global biosituational awareness.    These and other issues drive a number of DOD programs, to include the Chemical and Biological Defense Program, the Military Infectious Disease Program, the Cooperative Bio Engagement Program, GEIS [Global Emerging Infections Surveillance and Response System], DARPA [Defense Advanced Research Projects Agency], and others, who have broadly followed either AT&amp;L [Acquisition, Technology, and Logistics], Health Affairs, and OSD [Office of the Secretary of Defense].    I want to emphasize there are many hardworking, dedicated professionals working in these programs, but we need to better prepare for the eventual use of biological weapons. We believe that DOD needs to clarify parameters for military support to civilian authorities in response to a domestic biological attack, update and implement military biodefense doctrine, hopefully tiered to a new national strategy as recommended by the panel.    Let me provide one programmatic example of the need to include military-civilian collaboration. There is a longstanding need for effective biodetectors on and off the battlefield. Mr. Langevin and others that serve on the House Committee on Homeland Security are well aware of the DHS [Department of Homeland Security] experience with BioWatch, a biodetection system that a number of experts believe is insufficient to the needs of the Nation. DOD also has a separate biodetection program and it's had one for years. And although DOD and DHS are communicating better than ever on these programs, this is just an example where we need an integrated program, in this case biodetection, driven by strong centralized leadership, guided by a national biodefense strategy, that we can field effective and affordable solutions in a timely manner for our soldiers and citizens.    DOD and the interagency face a number of other challenges. These include the need to establish effective BW [biological weapons] intelligence, authoritative microbial forensics and attribution, and decontamination and remediation.    I can go into detail about these later, but before closing I would like to add that the lines between BW and infectious diseases have blurred, and DOD's positive contributions to global health security through our OCONUS [outside the contiguous United States] laboratories, our global biosurveillance programs, and cooperative bioengagement cannot be overstated.    In closing, I would like to thank the members of the subcommittee again for this opportunity to appear before you today. Thank you.    [The joint prepared statement of Dr. Parker and Mr. Wainstein can be found in the Appendix on page 20.]</t>
   </si>
   <si>
@@ -91,6 +106,12 @@
     <t>412615</t>
   </si>
   <si>
+    <t>Aguilar</t>
+  </si>
+  <si>
+    <t>Pete</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Aguilar. Thank you, gentlemen. I appreciate the report and the work that you are doing.    Dr. Parker, you touched on this a little bit, and the chairman mentioned it, the coordination between DHS and DOD. Can you talk a little bit about that and the role within the biomedical advanced research groups and DOD as well, what more we can do to foster that? The chairman mentioned obviously the potential to have events abroad and here nationally as well. I represent the city of San Bernardino where the incident was last month, and obviously it could have gone a different way.    And so making sure that the coordination between local law enforcement agencies also exists within a DHS interface or DOD interface is something that I think our communities also want to see us take serious.</t>
   </si>
   <si>
@@ -124,6 +145,12 @@
     <t>412648</t>
   </si>
   <si>
+    <t>Stefanik</t>
+  </si>
+  <si>
+    <t>Elise</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Stefanik. Thank you, Mr. Chairman. And thank you, Dr. Parker, for your testimony. Mr. Wainstein, good to see you again. You and I served in the White House together.</t>
   </si>
   <si>
@@ -163,6 +190,12 @@
     <t>412642</t>
   </si>
   <si>
+    <t>Ashford</t>
+  </si>
+  <si>
+    <t>Brad</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Ashford. Thank you.    Doctor, thank you, and thanks for the report.    We at the University of Nebraska have engaged in--and I know you are aware of this--a number of initiatives, starting with Dr. Phil Smith a few years--well, 10 or 12 years ago--in some of his initiatives that have evolved into the Ebola facility at UNMC [University of Nebraska Medical Center]. And there is great hope that they can expand that facility further to provide training and other, obviously not only for Ebola, but for the whole grouping of threats here.    And again, I thought Congresswoman Stefanik's point is well taken, is that facility and that initiative at UNMC is a public-private partnership as well. And so the kind of training that would go on there, and I know your report reflects this, is not only would be training healthcare professionals, training others that are going to be engaging in these threats.    How would you see that training regimen working? And I know you have mentioned it in the report, but if you could just elaborate on it.</t>
   </si>
   <si>
@@ -190,6 +223,9 @@
     <t xml:space="preserve">    Mr. Wilson. Thank you very much, Congressman. And, hey, from a South Carolina perspective, we really appreciate Nebraska. You are a hearty people to live where you live.    And, hey, talk about hearty people, it is really tough, San Diego. Congressman Duncan Hunter from California.</t>
   </si>
   <si>
+    <t>Duncan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Duncan. Also in the South.</t>
   </si>
   <si>
@@ -203,6 +239,9 @@
   </si>
   <si>
     <t>412283</t>
+  </si>
+  <si>
+    <t>Hunter</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Hunter. And then DOD says, hey, we are going to focus in these three areas, for instance, and that is where the appropriation is going to go towards, we are going to go towards that?</t>
@@ -602,7 +641,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H64"/>
+  <dimension ref="A1:I64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -610,7 +649,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -632,1517 +671,1769 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s"/>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
         <v>13</v>
       </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
         <v>13</v>
       </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>29</v>
+      </c>
+      <c r="G13" t="s">
+        <v>30</v>
+      </c>
       <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>29</v>
+      </c>
+      <c r="G15" t="s">
+        <v>30</v>
+      </c>
       <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>29</v>
+      </c>
+      <c r="G17" t="s">
+        <v>30</v>
+      </c>
       <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>29</v>
+      </c>
+      <c r="G19" t="s">
+        <v>30</v>
+      </c>
       <c r="H19" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>29</v>
+      </c>
+      <c r="G21" t="s">
+        <v>30</v>
+      </c>
       <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>42</v>
+      </c>
+      <c r="G23" t="s">
+        <v>43</v>
+      </c>
       <c r="H23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>35</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>42</v>
+      </c>
+      <c r="G25" t="s">
+        <v>43</v>
+      </c>
       <c r="H25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>42</v>
+      </c>
+      <c r="G27" t="s">
+        <v>43</v>
+      </c>
       <c r="H27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>35</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>42</v>
+      </c>
+      <c r="G29" t="s">
+        <v>43</v>
+      </c>
       <c r="H29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G30" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>42</v>
+      </c>
+      <c r="G31" t="s">
+        <v>43</v>
+      </c>
       <c r="H31" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="I31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G32" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>35</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>42</v>
+      </c>
+      <c r="G33" t="s">
+        <v>43</v>
+      </c>
       <c r="H33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
       <c r="H34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>48</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>57</v>
+      </c>
+      <c r="G35" t="s">
+        <v>58</v>
+      </c>
       <c r="H35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>59</v>
+      </c>
+      <c r="I35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G36" t="s">
+        <v>20</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>48</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>57</v>
+      </c>
+      <c r="G37" t="s">
+        <v>58</v>
+      </c>
       <c r="H37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>59</v>
+      </c>
+      <c r="I37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>48</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>57</v>
+      </c>
+      <c r="G39" t="s">
+        <v>58</v>
+      </c>
       <c r="H39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>59</v>
+      </c>
+      <c r="I39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G40" t="s">
+        <v>20</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>48</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>57</v>
+      </c>
+      <c r="G41" t="s">
+        <v>58</v>
+      </c>
       <c r="H41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>59</v>
+      </c>
+      <c r="I41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G42" t="s">
+        <v>20</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G43" t="s">
+        <v>13</v>
+      </c>
       <c r="H43" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G44" t="s">
+        <v>69</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G45" t="s">
+        <v>13</v>
+      </c>
       <c r="H45" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I45" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G46" t="s">
+        <v>69</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G47" t="s">
+        <v>20</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>62</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G48" t="s">
+        <v>75</v>
+      </c>
       <c r="H48" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G49" t="s">
+        <v>20</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G50" t="s">
+        <v>69</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G51" t="s">
+        <v>20</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>13</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G52" t="s">
+        <v>69</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G53" t="s">
+        <v>20</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>13</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
+        <v>16</v>
+      </c>
+      <c r="G54" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="55" spans="1:8">
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G55" t="s">
+        <v>20</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G56" t="s">
+        <v>69</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>13</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G57" t="s">
+        <v>20</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>13</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G58" t="s">
+        <v>69</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G59" t="s">
+        <v>13</v>
+      </c>
       <c r="H59" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I59" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>24</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>29</v>
+      </c>
+      <c r="G60" t="s">
+        <v>30</v>
+      </c>
       <c r="H60" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I60" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>13</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G61" t="s">
+        <v>20</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>13</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G62" t="s">
+        <v>17</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>24</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>29</v>
+      </c>
+      <c r="G63" t="s">
+        <v>30</v>
+      </c>
       <c r="H63" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I63" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>11</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G64" t="s">
+        <v>13</v>
+      </c>
       <c r="H64" t="s">
-        <v>79</v>
+        <v>14</v>
+      </c>
+      <c r="I64" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg98913.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98913.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="96">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400433</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Wilson</t>
   </si>
   <si>
@@ -104,6 +110,9 @@
   </si>
   <si>
     <t>412615</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Aguilar</t>
@@ -641,7 +650,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:J64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -649,7 +658,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -674,1766 +683,1892 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s"/>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s"/>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
         <v>16</v>
       </c>
-      <c r="G11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I15" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G19" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H19" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G21" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H21" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G23" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H23" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="J23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G25" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H25" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I25" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="J25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" t="s">
-        <v>20</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G27" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H27" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="J27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" t="s">
-        <v>20</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>22</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G29" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H29" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="J29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" t="s">
-        <v>17</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>19</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G31" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H31" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="J31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" t="s">
-        <v>20</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>22</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G33" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H33" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I33" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="J33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I34" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G35" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="H35" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I35" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>62</v>
+      </c>
+      <c r="J35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>22</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G37" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="H37" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I37" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="J37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" t="s">
-        <v>20</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>22</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G39" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="H39" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I39" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>62</v>
+      </c>
+      <c r="J39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" t="s">
-        <v>20</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>22</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G41" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="H41" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I41" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>62</v>
+      </c>
+      <c r="J41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" t="s">
-        <v>20</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>22</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I43" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" t="s">
-        <v>69</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>72</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H45" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I45" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J45" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" t="s">
-        <v>69</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="47" spans="1:9">
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" t="s">
-        <v>20</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>22</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G48" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="H48" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="I48" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>72</v>
+      </c>
+      <c r="J48" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" t="s">
-        <v>20</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>22</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>16</v>
-      </c>
-      <c r="G50" t="s">
-        <v>69</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>72</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" t="s">
-        <v>20</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>22</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>16</v>
-      </c>
-      <c r="G52" t="s">
-        <v>69</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>72</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" t="s">
-        <v>20</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>22</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>16</v>
-      </c>
-      <c r="G54" t="s">
-        <v>69</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>72</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
-      </c>
-      <c r="G55" t="s">
-        <v>20</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>22</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>16</v>
-      </c>
-      <c r="G56" t="s">
-        <v>69</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>72</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>16</v>
-      </c>
-      <c r="G57" t="s">
-        <v>20</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>22</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>16</v>
-      </c>
-      <c r="G58" t="s">
-        <v>69</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>72</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G59" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H59" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I59" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J59" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G60" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H60" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I60" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J60" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>16</v>
-      </c>
-      <c r="G61" t="s">
-        <v>20</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>22</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>16</v>
-      </c>
-      <c r="G62" t="s">
-        <v>17</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>19</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G63" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H63" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I63" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J63" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G64" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H64" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I64" t="s">
-        <v>92</v>
+        <v>16</v>
+      </c>
+      <c r="J64" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
